--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.92586266666666</v>
+        <v>24.80739666666667</v>
       </c>
       <c r="H2">
-        <v>92.77758799999998</v>
+        <v>74.42219</v>
       </c>
       <c r="I2">
-        <v>0.05444076693605814</v>
+        <v>0.04592184648638522</v>
       </c>
       <c r="J2">
-        <v>0.05577557035774221</v>
+        <v>0.0464753344235927</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.272955666666666</v>
+        <v>6.868105333333333</v>
       </c>
       <c r="N2">
-        <v>27.818867</v>
+        <v>20.604316</v>
       </c>
       <c r="O2">
-        <v>0.2914561381297694</v>
+        <v>0.2588055888237392</v>
       </c>
       <c r="P2">
-        <v>0.312247808516458</v>
+        <v>0.2729750438473681</v>
       </c>
       <c r="Q2">
-        <v>286.7741534614217</v>
+        <v>170.3798133524489</v>
       </c>
       <c r="R2">
-        <v>2580.967381152795</v>
+        <v>1533.41832017204</v>
       </c>
       <c r="S2">
-        <v>0.01586709568800634</v>
+        <v>0.01188483051978229</v>
       </c>
       <c r="T2">
-        <v>0.01741579961296052</v>
+        <v>0.01268660645210131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.92586266666666</v>
+        <v>24.80739666666667</v>
       </c>
       <c r="H3">
-        <v>92.77758799999998</v>
+        <v>74.42219</v>
       </c>
       <c r="I3">
-        <v>0.05444076693605814</v>
+        <v>0.04592184648638522</v>
       </c>
       <c r="J3">
-        <v>0.05577557035774221</v>
+        <v>0.0464753344235927</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.785653</v>
       </c>
       <c r="O3">
-        <v>0.32253892774221</v>
+        <v>0.3866907812901101</v>
       </c>
       <c r="P3">
-        <v>0.3455479579020282</v>
+        <v>0.4078618760042731</v>
       </c>
       <c r="Q3">
-        <v>317.3576255938848</v>
+        <v>254.5706352044522</v>
       </c>
       <c r="R3">
-        <v>2856.218630344964</v>
+        <v>2291.13571684007</v>
       </c>
       <c r="S3">
-        <v>0.01755926659301976</v>
+        <v>0.0177575546961048</v>
       </c>
       <c r="T3">
-        <v>0.01927313443793872</v>
+        <v>0.01895551708593249</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.92586266666666</v>
+        <v>24.80739666666667</v>
       </c>
       <c r="H4">
-        <v>92.77758799999998</v>
+        <v>74.42219</v>
       </c>
       <c r="I4">
-        <v>0.05444076693605814</v>
+        <v>0.04592184648638522</v>
       </c>
       <c r="J4">
-        <v>0.05577557035774221</v>
+        <v>0.0464753344235927</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.681345666666667</v>
+        <v>3.069012333333333</v>
       </c>
       <c r="N4">
-        <v>8.044036999999999</v>
+        <v>9.207037</v>
       </c>
       <c r="O4">
-        <v>0.08427675933002504</v>
+        <v>0.1156472572109141</v>
       </c>
       <c r="P4">
-        <v>0.09028882897622333</v>
+        <v>0.1219788770847497</v>
       </c>
       <c r="Q4">
-        <v>82.92292784919509</v>
+        <v>76.13420632789222</v>
       </c>
       <c r="R4">
-        <v>746.3063506427558</v>
+        <v>685.20785695103</v>
       </c>
       <c r="S4">
-        <v>0.004588091412812157</v>
+        <v>0.005310735592211105</v>
       </c>
       <c r="T4">
-        <v>0.005035910933081498</v>
+        <v>0.005669009105128049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.92586266666666</v>
+        <v>24.80739666666667</v>
       </c>
       <c r="H5">
-        <v>92.77758799999998</v>
+        <v>74.42219</v>
       </c>
       <c r="I5">
-        <v>0.05444076693605814</v>
+        <v>0.04592184648638522</v>
       </c>
       <c r="J5">
-        <v>0.05577557035774221</v>
+        <v>0.0464753344235927</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.355595000000001</v>
+        <v>4.132517999999999</v>
       </c>
       <c r="N5">
-        <v>12.71119</v>
+        <v>8.265035999999998</v>
       </c>
       <c r="O5">
-        <v>0.1997612455838197</v>
+        <v>0.1557225322570331</v>
       </c>
       <c r="P5">
-        <v>0.1426744382197994</v>
+        <v>0.1094988333754965</v>
       </c>
       <c r="Q5">
-        <v>196.5522581349533</v>
+        <v>102.51701325814</v>
       </c>
       <c r="R5">
-        <v>1179.31354880972</v>
+        <v>615.1020795488399</v>
       </c>
       <c r="S5">
-        <v>0.0108751554136854</v>
+        <v>0.007151066220778644</v>
       </c>
       <c r="T5">
-        <v>0.007957748167179765</v>
+        <v>0.005088994900119452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.92586266666666</v>
+        <v>24.80739666666667</v>
       </c>
       <c r="H6">
-        <v>92.77758799999998</v>
+        <v>74.42219</v>
       </c>
       <c r="I6">
-        <v>0.05444076693605814</v>
+        <v>0.04592184648638522</v>
       </c>
       <c r="J6">
-        <v>0.05577557035774221</v>
+        <v>0.0464753344235927</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.244175333333333</v>
+        <v>2.206181</v>
       </c>
       <c r="N6">
-        <v>9.732526</v>
+        <v>6.618543</v>
       </c>
       <c r="O6">
-        <v>0.1019669292141758</v>
+        <v>0.08313384041820353</v>
       </c>
       <c r="P6">
-        <v>0.1092409663854911</v>
+        <v>0.08768536968811251</v>
       </c>
       <c r="Q6">
-        <v>100.3289208252542</v>
+        <v>54.72960718546333</v>
       </c>
       <c r="R6">
-        <v>902.9602874272878</v>
+        <v>492.56646466917</v>
       </c>
       <c r="S6">
-        <v>0.005551157828534484</v>
+        <v>0.003817659457508389</v>
       </c>
       <c r="T6">
-        <v>0.006092977206581712</v>
+        <v>0.004075206880311387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1486.423859</v>
       </c>
       <c r="I7">
-        <v>0.8722155492554426</v>
+        <v>0.9171905350635116</v>
       </c>
       <c r="J7">
-        <v>0.8936009257869605</v>
+        <v>0.928245271232037</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.272955666666666</v>
+        <v>6.868105333333333</v>
       </c>
       <c r="N7">
-        <v>27.818867</v>
+        <v>20.604316</v>
       </c>
       <c r="O7">
-        <v>0.2914561381297694</v>
+        <v>0.2588055888237392</v>
       </c>
       <c r="P7">
-        <v>0.312247808516458</v>
+        <v>0.2729750438473681</v>
       </c>
       <c r="Q7">
-        <v>4594.514182127528</v>
+        <v>3402.971877863939</v>
       </c>
       <c r="R7">
-        <v>41350.62763914775</v>
+        <v>30626.74690077544</v>
       </c>
       <c r="S7">
-        <v>0.254212575602727</v>
+        <v>0.2373740364906725</v>
       </c>
       <c r="T7">
-        <v>0.2790249307652564</v>
+        <v>0.2533877936156774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1486.423859</v>
       </c>
       <c r="I8">
-        <v>0.8722155492554426</v>
+        <v>0.9171905350635116</v>
       </c>
       <c r="J8">
-        <v>0.8936009257869605</v>
+        <v>0.928245271232037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>30.785653</v>
       </c>
       <c r="O8">
-        <v>0.32253892774221</v>
+        <v>0.3866907812901101</v>
       </c>
       <c r="P8">
-        <v>0.3455479579020282</v>
+        <v>0.4078618760042731</v>
       </c>
       <c r="Q8">
         <v>5084.503237121659</v>
@@ -948,10 +948,10 @@
         <v>45760.52913409493</v>
       </c>
       <c r="S8">
-        <v>0.2813234680169333</v>
+        <v>0.3546691245956034</v>
       </c>
       <c r="T8">
-        <v>0.3087819750850461</v>
+        <v>0.378595857716794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1486.423859</v>
       </c>
       <c r="I9">
-        <v>0.8722155492554426</v>
+        <v>0.9171905350635116</v>
       </c>
       <c r="J9">
-        <v>0.8936009257869605</v>
+        <v>0.928245271232037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.681345666666667</v>
+        <v>3.069012333333333</v>
       </c>
       <c r="N9">
-        <v>8.044036999999999</v>
+        <v>9.207037</v>
       </c>
       <c r="O9">
-        <v>0.08427675933002504</v>
+        <v>0.1156472572109141</v>
       </c>
       <c r="P9">
-        <v>0.09028882897622333</v>
+        <v>0.1219788770847497</v>
       </c>
       <c r="Q9">
-        <v>1328.538724386531</v>
+        <v>1520.617718610643</v>
       </c>
       <c r="R9">
-        <v>11956.84851947878</v>
+        <v>13685.55946749578</v>
       </c>
       <c r="S9">
-        <v>0.07350749992850654</v>
+        <v>0.1060705697199059</v>
       </c>
       <c r="T9">
-        <v>0.08068218116137371</v>
+        <v>0.1132263158441128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1486.423859</v>
       </c>
       <c r="I10">
-        <v>0.8722155492554426</v>
+        <v>0.9171905350635116</v>
       </c>
       <c r="J10">
-        <v>0.8936009257869605</v>
+        <v>0.928245271232037</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.355595000000001</v>
+        <v>4.132517999999999</v>
       </c>
       <c r="N10">
-        <v>12.71119</v>
+        <v>8.265035999999998</v>
       </c>
       <c r="O10">
-        <v>0.1997612455838197</v>
+        <v>0.1557225322570331</v>
       </c>
       <c r="P10">
-        <v>0.1426744382197994</v>
+        <v>0.1094988333754965</v>
       </c>
       <c r="Q10">
-        <v>3149.036015380369</v>
+        <v>2047.557784315654</v>
       </c>
       <c r="R10">
-        <v>18894.21609228221</v>
+        <v>12285.34670589392</v>
       </c>
       <c r="S10">
-        <v>0.1742348645368426</v>
+        <v>0.1428272326822731</v>
       </c>
       <c r="T10">
-        <v>0.1274940100793472</v>
+        <v>0.1016417742862293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1486.423859</v>
       </c>
       <c r="I11">
-        <v>0.8722155492554426</v>
+        <v>0.9171905350635116</v>
       </c>
       <c r="J11">
-        <v>0.8936009257869605</v>
+        <v>0.928245271232037</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.244175333333333</v>
+        <v>2.206181</v>
       </c>
       <c r="N11">
-        <v>9.732526</v>
+        <v>6.618543</v>
       </c>
       <c r="O11">
-        <v>0.1019669292141758</v>
+        <v>0.08313384041820353</v>
       </c>
       <c r="P11">
-        <v>0.1092409663854911</v>
+        <v>0.08768536968811251</v>
       </c>
       <c r="Q11">
-        <v>1607.406539415315</v>
+        <v>1093.106691890826</v>
       </c>
       <c r="R11">
-        <v>14466.65885473783</v>
+        <v>9837.960227017436</v>
       </c>
       <c r="S11">
-        <v>0.08893714117043321</v>
+        <v>0.07624957157505667</v>
       </c>
       <c r="T11">
-        <v>0.0976178286959371</v>
+        <v>0.08139352976922344</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4893776666666667</v>
+        <v>0.531455</v>
       </c>
       <c r="H12">
-        <v>1.468133</v>
+        <v>1.594365</v>
       </c>
       <c r="I12">
-        <v>0.0008614826943349278</v>
+        <v>0.0009837950854881532</v>
       </c>
       <c r="J12">
-        <v>0.0008826049178603689</v>
+        <v>0.0009956525945859879</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.272955666666666</v>
+        <v>6.868105333333333</v>
       </c>
       <c r="N12">
-        <v>27.818867</v>
+        <v>20.604316</v>
       </c>
       <c r="O12">
-        <v>0.2914561381297694</v>
+        <v>0.2588055888237392</v>
       </c>
       <c r="P12">
-        <v>0.312247808516458</v>
+        <v>0.2729750438473681</v>
       </c>
       <c r="Q12">
-        <v>4.537977407256777</v>
+        <v>3.650088919926667</v>
       </c>
       <c r="R12">
-        <v>40.841796665311</v>
+        <v>32.85080027934</v>
       </c>
       <c r="S12">
-        <v>0.0002510844191564866</v>
+        <v>0.0002546116663816624</v>
       </c>
       <c r="T12">
-        <v>0.0002755914513877486</v>
+        <v>0.0002717883106638559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4893776666666667</v>
+        <v>0.531455</v>
       </c>
       <c r="H13">
-        <v>1.468133</v>
+        <v>1.594365</v>
       </c>
       <c r="I13">
-        <v>0.0008614826943349278</v>
+        <v>0.0009837950854881532</v>
       </c>
       <c r="J13">
-        <v>0.0008826049178603689</v>
+        <v>0.0009956525945859879</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>30.785653</v>
       </c>
       <c r="O13">
-        <v>0.32253892774221</v>
+        <v>0.3866907812901101</v>
       </c>
       <c r="P13">
-        <v>0.3455479579020282</v>
+        <v>0.4078618760042731</v>
       </c>
       <c r="Q13">
-        <v>5.021937010649889</v>
+        <v>5.453729738371667</v>
       </c>
       <c r="R13">
-        <v>45.197433095849</v>
+        <v>49.08356764534501</v>
       </c>
       <c r="S13">
-        <v>0.0002778617044992577</v>
+        <v>0.0003804244902367846</v>
       </c>
       <c r="T13">
-        <v>0.0003049823270009378</v>
+        <v>0.000406088735076363</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4893776666666667</v>
+        <v>0.531455</v>
       </c>
       <c r="H14">
-        <v>1.468133</v>
+        <v>1.594365</v>
       </c>
       <c r="I14">
-        <v>0.0008614826943349278</v>
+        <v>0.0009837950854881532</v>
       </c>
       <c r="J14">
-        <v>0.0008826049178603689</v>
+        <v>0.0009956525945859879</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.681345666666667</v>
+        <v>3.069012333333333</v>
       </c>
       <c r="N14">
-        <v>8.044036999999999</v>
+        <v>9.207037</v>
       </c>
       <c r="O14">
-        <v>0.08427675933002504</v>
+        <v>0.1156472572109141</v>
       </c>
       <c r="P14">
-        <v>0.09028882897622333</v>
+        <v>0.1219788770847497</v>
       </c>
       <c r="Q14">
-        <v>1.312190685880111</v>
+        <v>1.631041949611667</v>
       </c>
       <c r="R14">
-        <v>11.809716172921</v>
+        <v>14.679377546505</v>
       </c>
       <c r="S14">
-        <v>7.260296969744624E-05</v>
+        <v>0.0001137732032942817</v>
       </c>
       <c r="T14">
-        <v>7.968936448226849E-05</v>
+        <v>0.0001214485854541163</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4893776666666667</v>
+        <v>0.531455</v>
       </c>
       <c r="H15">
-        <v>1.468133</v>
+        <v>1.594365</v>
       </c>
       <c r="I15">
-        <v>0.0008614826943349278</v>
+        <v>0.0009837950854881532</v>
       </c>
       <c r="J15">
-        <v>0.0008826049178603689</v>
+        <v>0.0009956525945859879</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.355595000000001</v>
+        <v>4.132517999999999</v>
       </c>
       <c r="N15">
-        <v>12.71119</v>
+        <v>8.265035999999998</v>
       </c>
       <c r="O15">
-        <v>0.1997612455838197</v>
+        <v>0.1557225322570331</v>
       </c>
       <c r="P15">
-        <v>0.1426744382197994</v>
+        <v>0.1094988333754965</v>
       </c>
       <c r="Q15">
-        <v>3.110286251378334</v>
+        <v>2.19624735369</v>
       </c>
       <c r="R15">
-        <v>18.66171750827</v>
+        <v>13.17748412214</v>
       </c>
       <c r="S15">
-        <v>0.0001720908560692501</v>
+        <v>0.0001531990619342396</v>
       </c>
       <c r="T15">
-        <v>0.0001259251608257603</v>
+        <v>0.0001090227975544518</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4893776666666667</v>
+        <v>0.531455</v>
       </c>
       <c r="H16">
-        <v>1.468133</v>
+        <v>1.594365</v>
       </c>
       <c r="I16">
-        <v>0.0008614826943349278</v>
+        <v>0.0009837950854881532</v>
       </c>
       <c r="J16">
-        <v>0.0008826049178603689</v>
+        <v>0.0009956525945859879</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.244175333333333</v>
+        <v>2.206181</v>
       </c>
       <c r="N16">
-        <v>9.732526</v>
+        <v>6.618543</v>
       </c>
       <c r="O16">
-        <v>0.1019669292141758</v>
+        <v>0.08313384041820353</v>
       </c>
       <c r="P16">
-        <v>0.1092409663854911</v>
+        <v>0.08768536968811251</v>
       </c>
       <c r="Q16">
-        <v>1.587626954884222</v>
+        <v>1.172485923355</v>
       </c>
       <c r="R16">
-        <v>14.288642593958</v>
+        <v>10.552373310195</v>
       </c>
       <c r="S16">
-        <v>8.784274491248706E-05</v>
+        <v>8.178666364118502E-05</v>
       </c>
       <c r="T16">
-        <v>9.641661416365372E-05</v>
+        <v>8.730416583720076E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.7842175</v>
+        <v>19.300508</v>
       </c>
       <c r="H17">
-        <v>81.56843499999999</v>
+        <v>38.601016</v>
       </c>
       <c r="I17">
-        <v>0.07179505721533752</v>
+        <v>0.03572785074526495</v>
       </c>
       <c r="J17">
-        <v>0.0490369073327647</v>
+        <v>0.02410564816341003</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.272955666666666</v>
+        <v>6.868105333333333</v>
       </c>
       <c r="N17">
-        <v>27.818867</v>
+        <v>20.604316</v>
       </c>
       <c r="O17">
-        <v>0.2914561381297694</v>
+        <v>0.2588055888237392</v>
       </c>
       <c r="P17">
-        <v>0.312247808516458</v>
+        <v>0.2729750438473681</v>
       </c>
       <c r="Q17">
-        <v>378.1902407771908</v>
+        <v>132.5579219308427</v>
       </c>
       <c r="R17">
-        <v>2269.141444663145</v>
+        <v>795.347531585056</v>
       </c>
       <c r="S17">
-        <v>0.02092511011278811</v>
+        <v>0.009246567449534965</v>
       </c>
       <c r="T17">
-        <v>0.01531166685108041</v>
+        <v>0.006580240364376083</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.7842175</v>
+        <v>19.300508</v>
       </c>
       <c r="H18">
-        <v>81.56843499999999</v>
+        <v>38.601016</v>
       </c>
       <c r="I18">
-        <v>0.07179505721533752</v>
+        <v>0.03572785074526495</v>
       </c>
       <c r="J18">
-        <v>0.0490369073327647</v>
+        <v>0.02410564816341003</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>30.785653</v>
       </c>
       <c r="O18">
-        <v>0.32253892774221</v>
+        <v>0.3866907812901101</v>
       </c>
       <c r="P18">
-        <v>0.3455479579020282</v>
+        <v>0.4078618760042731</v>
       </c>
       <c r="Q18">
-        <v>418.5229226105092</v>
+        <v>198.0595806705747</v>
       </c>
       <c r="R18">
-        <v>2511.137535663055</v>
+        <v>1188.357484023448</v>
       </c>
       <c r="S18">
-        <v>0.02315670077142559</v>
+        <v>0.01381563051850295</v>
       </c>
       <c r="T18">
-        <v>0.01694460319066783</v>
+        <v>0.009831774882227378</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.7842175</v>
+        <v>19.300508</v>
       </c>
       <c r="H19">
-        <v>81.56843499999999</v>
+        <v>38.601016</v>
       </c>
       <c r="I19">
-        <v>0.07179505721533752</v>
+        <v>0.03572785074526495</v>
       </c>
       <c r="J19">
-        <v>0.0490369073327647</v>
+        <v>0.02410564816341003</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.681345666666667</v>
+        <v>3.069012333333333</v>
       </c>
       <c r="N19">
-        <v>8.044036999999999</v>
+        <v>9.207037</v>
       </c>
       <c r="O19">
-        <v>0.08427675933002504</v>
+        <v>0.1156472572109141</v>
       </c>
       <c r="P19">
-        <v>0.09028882897622333</v>
+        <v>0.1219788770847497</v>
       </c>
       <c r="Q19">
-        <v>109.3565848620158</v>
+        <v>59.23349709159866</v>
       </c>
       <c r="R19">
-        <v>656.1395091720949</v>
+        <v>355.400982549592</v>
       </c>
       <c r="S19">
-        <v>0.006050654758022378</v>
+        <v>0.004131827944730806</v>
       </c>
       <c r="T19">
-        <v>0.004427484939690904</v>
+        <v>0.002940379894372814</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.7842175</v>
+        <v>19.300508</v>
       </c>
       <c r="H20">
-        <v>81.56843499999999</v>
+        <v>38.601016</v>
       </c>
       <c r="I20">
-        <v>0.07179505721533752</v>
+        <v>0.03572785074526495</v>
       </c>
       <c r="J20">
-        <v>0.0490369073327647</v>
+        <v>0.02410564816341003</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.355595000000001</v>
+        <v>4.132517999999999</v>
       </c>
       <c r="N20">
-        <v>12.71119</v>
+        <v>8.265035999999998</v>
       </c>
       <c r="O20">
-        <v>0.1997612455838197</v>
+        <v>0.1557225322570331</v>
       </c>
       <c r="P20">
-        <v>0.1426744382197994</v>
+        <v>0.1094988333754965</v>
       </c>
       <c r="Q20">
-        <v>259.2079688219125</v>
+        <v>79.75969671914399</v>
       </c>
       <c r="R20">
-        <v>1036.83187528765</v>
+        <v>319.038786876576</v>
       </c>
       <c r="S20">
-        <v>0.01434187005609742</v>
+        <v>0.005563631390153985</v>
       </c>
       <c r="T20">
-        <v>0.006996313205738565</v>
+        <v>0.002639540351653577</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.7842175</v>
+        <v>19.300508</v>
       </c>
       <c r="H21">
-        <v>81.56843499999999</v>
+        <v>38.601016</v>
       </c>
       <c r="I21">
-        <v>0.07179505721533752</v>
+        <v>0.03572785074526495</v>
       </c>
       <c r="J21">
-        <v>0.0490369073327647</v>
+        <v>0.02410564816341003</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.244175333333333</v>
+        <v>2.206181</v>
       </c>
       <c r="N21">
-        <v>9.732526</v>
+        <v>6.618543</v>
       </c>
       <c r="O21">
-        <v>0.1019669292141758</v>
+        <v>0.08313384041820353</v>
       </c>
       <c r="P21">
-        <v>0.1092409663854911</v>
+        <v>0.08768536968811251</v>
       </c>
       <c r="Q21">
-        <v>132.3111524028016</v>
+        <v>42.580414039948</v>
       </c>
       <c r="R21">
-        <v>793.8669144168099</v>
+        <v>255.482484239688</v>
       </c>
       <c r="S21">
-        <v>0.007320721517004024</v>
+        <v>0.00297019344234225</v>
       </c>
       <c r="T21">
-        <v>0.005356839145586993</v>
+        <v>0.002113712670780179</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.390342</v>
+        <v>0.09506199999999999</v>
       </c>
       <c r="H22">
-        <v>1.171026</v>
+        <v>0.285186</v>
       </c>
       <c r="I22">
-        <v>0.0006871438988267774</v>
+        <v>0.0001759726193500387</v>
       </c>
       <c r="J22">
-        <v>0.0007039916046722992</v>
+        <v>0.0001780935863742616</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.272955666666666</v>
+        <v>6.868105333333333</v>
       </c>
       <c r="N22">
-        <v>27.818867</v>
+        <v>20.604316</v>
       </c>
       <c r="O22">
-        <v>0.2914561381297694</v>
+        <v>0.2588055888237392</v>
       </c>
       <c r="P22">
-        <v>0.312247808516458</v>
+        <v>0.2729750438473681</v>
       </c>
       <c r="Q22">
-        <v>3.619624060838</v>
+        <v>0.6528958291973332</v>
       </c>
       <c r="R22">
-        <v>32.576616547542</v>
+        <v>5.876062462776</v>
       </c>
       <c r="S22">
-        <v>0.0002002723070914855</v>
+        <v>4.554269736774249E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002198198357729101</v>
+        <v>4.86151045494491E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.390342</v>
+        <v>0.09506199999999999</v>
       </c>
       <c r="H23">
-        <v>1.171026</v>
+        <v>0.285186</v>
       </c>
       <c r="I23">
-        <v>0.0006871438988267774</v>
+        <v>0.0001759726193500387</v>
       </c>
       <c r="J23">
-        <v>0.0007039916046722992</v>
+        <v>0.0001780935863742616</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>30.785653</v>
       </c>
       <c r="O23">
-        <v>0.32253892774221</v>
+        <v>0.3866907812901101</v>
       </c>
       <c r="P23">
-        <v>0.3455479579020282</v>
+        <v>0.4078618760042731</v>
       </c>
       <c r="Q23">
-        <v>4.005644454442001</v>
+        <v>0.9755152484953333</v>
       </c>
       <c r="R23">
-        <v>36.050800089978</v>
+        <v>8.779637236458001</v>
       </c>
       <c r="S23">
-        <v>0.0002216306563321905</v>
+        <v>6.804698966213361E-05</v>
       </c>
       <c r="T23">
-        <v>0.0002432628613746849</v>
+        <v>7.263758424293538E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.390342</v>
+        <v>0.09506199999999999</v>
       </c>
       <c r="H24">
-        <v>1.171026</v>
+        <v>0.285186</v>
       </c>
       <c r="I24">
-        <v>0.0006871438988267774</v>
+        <v>0.0001759726193500387</v>
       </c>
       <c r="J24">
-        <v>0.0007039916046722992</v>
+        <v>0.0001780935863742616</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.681345666666667</v>
+        <v>3.069012333333333</v>
       </c>
       <c r="N24">
-        <v>8.044036999999999</v>
+        <v>9.207037</v>
       </c>
       <c r="O24">
-        <v>0.08427675933002504</v>
+        <v>0.1156472572109141</v>
       </c>
       <c r="P24">
-        <v>0.09028882897622333</v>
+        <v>0.1219788770847497</v>
       </c>
       <c r="Q24">
-        <v>1.046641830218</v>
+        <v>0.2917464504313333</v>
       </c>
       <c r="R24">
-        <v>9.419776471962001</v>
+        <v>2.625718053882</v>
       </c>
       <c r="S24">
-        <v>5.79102609865194E-05</v>
+        <v>2.035075077205221E-05</v>
       </c>
       <c r="T24">
-        <v>6.356257759495425E-05</v>
+        <v>2.17236556819283E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.390342</v>
+        <v>0.09506199999999999</v>
       </c>
       <c r="H25">
-        <v>1.171026</v>
+        <v>0.285186</v>
       </c>
       <c r="I25">
-        <v>0.0006871438988267774</v>
+        <v>0.0001759726193500387</v>
       </c>
       <c r="J25">
-        <v>0.0007039916046722992</v>
+        <v>0.0001780935863742616</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.355595000000001</v>
+        <v>4.132517999999999</v>
       </c>
       <c r="N25">
-        <v>12.71119</v>
+        <v>8.265035999999998</v>
       </c>
       <c r="O25">
-        <v>0.1997612455838197</v>
+        <v>0.1557225322570331</v>
       </c>
       <c r="P25">
-        <v>0.1426744382197994</v>
+        <v>0.1094988333754965</v>
       </c>
       <c r="Q25">
-        <v>2.480855663490001</v>
+        <v>0.3928454261159999</v>
       </c>
       <c r="R25">
-        <v>14.88513398094</v>
+        <v>2.357072556696</v>
       </c>
       <c r="S25">
-        <v>0.0001372647211249592</v>
+        <v>2.740290189309101E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001004416067080754</v>
+        <v>1.950103993963985E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.390342</v>
+        <v>0.09506199999999999</v>
       </c>
       <c r="H26">
-        <v>1.171026</v>
+        <v>0.285186</v>
       </c>
       <c r="I26">
-        <v>0.0006871438988267774</v>
+        <v>0.0001759726193500387</v>
       </c>
       <c r="J26">
-        <v>0.0007039916046722992</v>
+        <v>0.0001780935863742616</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.244175333333333</v>
+        <v>2.206181</v>
       </c>
       <c r="N26">
-        <v>9.732526</v>
+        <v>6.618543</v>
       </c>
       <c r="O26">
-        <v>0.1019669292141758</v>
+        <v>0.08313384041820353</v>
       </c>
       <c r="P26">
-        <v>0.1092409663854911</v>
+        <v>0.08768536968811251</v>
       </c>
       <c r="Q26">
-        <v>1.266337887964</v>
+        <v>0.209723978222</v>
       </c>
       <c r="R26">
-        <v>11.397040991676</v>
+        <v>1.887515803998</v>
       </c>
       <c r="S26">
-        <v>7.006595329162281E-05</v>
+        <v>1.462927965501939E-05</v>
       </c>
       <c r="T26">
-        <v>7.69047232216746E-05</v>
+        <v>1.561620196030892E-05</v>
       </c>
     </row>
   </sheetData>
